--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2247685.477380494</v>
+        <v>-2250268.509450222</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>104.0575451467285</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>44.43736064133389</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851017</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -798,7 +798,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609205</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>38.0959546112479</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>58.28185552386336</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>73.87127112968037</v>
       </c>
       <c r="V5" t="n">
-        <v>218.8748435506832</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1029,7 +1029,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969284</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>81.46084344268529</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>135.2576985087956</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>249.7711064000617</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>231.4760253798853</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>32.79376842490331</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>29.27663252149632</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>53.65602513333666</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>147.7027769252564</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>176.7621441121396</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>106.7037805093892</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>224.1675592379412</v>
+        <v>203.4717645373299</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>36.22494343870214</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>100.5140508960354</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>45.17596778975012</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>182.0021194810421</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0385136149754</v>
+        <v>171.0385136149757</v>
       </c>
       <c r="C28" t="n">
-        <v>158.4533545316659</v>
+        <v>158.4533545316662</v>
       </c>
       <c r="D28" t="n">
-        <v>117.2403075398354</v>
+        <v>139.8220064512508</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>137.6404960796076</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7306717253069</v>
+        <v>156.7306717253072</v>
       </c>
       <c r="H28" t="n">
-        <v>131.501246279262</v>
+        <v>131.5012462792623</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.58178014315978</v>
+        <v>57.58178014316008</v>
       </c>
       <c r="S28" t="n">
-        <v>172.2328194346827</v>
+        <v>172.232819434683</v>
       </c>
       <c r="T28" t="n">
-        <v>208.6119837603264</v>
+        <v>48.38978876929843</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3910078222822</v>
+        <v>277.3910078222825</v>
       </c>
       <c r="V28" t="n">
-        <v>243.3441767568661</v>
+        <v>243.3441767568664</v>
       </c>
       <c r="W28" t="n">
-        <v>277.7295317696291</v>
+        <v>277.7295317696294</v>
       </c>
       <c r="X28" t="n">
-        <v>216.9161888220752</v>
+        <v>216.9161888220756</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.7911867851329</v>
+        <v>209.7911867851332</v>
       </c>
     </row>
     <row r="29">
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2953,7 +2953,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445516</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1295.236214140704</v>
+        <v>1934.181533884357</v>
       </c>
       <c r="C2" t="n">
-        <v>926.2736972002924</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D2" t="n">
-        <v>926.2736972002926</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E2" t="n">
-        <v>926.2736972002926</v>
+        <v>821.1650657389507</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389507</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2710.920705924291</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2710.920705924291</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180638</v>
+        <v>2710.920705924291</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204826</v>
+        <v>2320.781373948479</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.4719255574709</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C4" t="n">
-        <v>348.535742629564</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959802</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959802</v>
+        <v>272.2726250653094</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959802</v>
+        <v>125.382677567399</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>125.382677567399</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>125.382677567399</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962283</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.788049458848</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886954</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068852</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596437</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>699.1203903877106</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>699.1203903877106</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>699.1203903877106</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>699.1203903877106</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>699.1203903877106</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>699.1203903877106</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.546535481797</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678286</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.60582160917</v>
+        <v>3045.010628407857</v>
       </c>
       <c r="V5" t="n">
-        <v>3104.520121052924</v>
+        <v>2713.947741064286</v>
       </c>
       <c r="W5" t="n">
-        <v>2751.75146578281</v>
+        <v>2361.179085794172</v>
       </c>
       <c r="X5" t="n">
-        <v>2378.28570752173</v>
+        <v>1987.713327533092</v>
       </c>
       <c r="Y5" t="n">
-        <v>1988.146375545919</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4632,46 +4632,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>529.5785797246257</v>
+        <v>148.7957966773201</v>
       </c>
       <c r="C7" t="n">
-        <v>360.6423967967187</v>
+        <v>148.7957966773201</v>
       </c>
       <c r="D7" t="n">
-        <v>360.6423967967187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4753,22 +4753,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>784.2630679305125</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>784.2630679305125</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>529.5785797246257</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W7" t="n">
-        <v>529.5785797246257</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="X7" t="n">
-        <v>529.5785797246257</v>
+        <v>148.7957966773201</v>
       </c>
       <c r="Y7" t="n">
-        <v>529.5785797246257</v>
+        <v>148.7957966773201</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1257.755181644084</v>
+        <v>1771.429619686768</v>
       </c>
       <c r="C8" t="n">
-        <v>888.7926647036722</v>
+        <v>1771.429619686768</v>
       </c>
       <c r="D8" t="n">
-        <v>530.5269660969217</v>
+        <v>1413.163921080017</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>1027.375668481773</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>616.3897636921654</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4811,13 +4811,13 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3091.791654558782</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2760.728767215212</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>2407.960111945097</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X8" t="n">
-        <v>2034.494353684017</v>
+        <v>2161.568951662579</v>
       </c>
       <c r="Y8" t="n">
-        <v>1644.355021708206</v>
+        <v>1771.429619686768</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064547</v>
@@ -4881,52 +4881,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>410.6772566376943</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C10" t="n">
-        <v>410.6772566376943</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4987,25 +4987,25 @@
         <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>474.5166334391246</v>
       </c>
       <c r="W10" t="n">
-        <v>631.4698357812244</v>
+        <v>474.5166334391246</v>
       </c>
       <c r="X10" t="n">
-        <v>631.4698357812244</v>
+        <v>246.5270825411072</v>
       </c>
       <c r="Y10" t="n">
-        <v>410.6772566376943</v>
+        <v>246.5270825411072</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,16 +5051,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5130,10 +5130,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>734.6461798836012</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>734.6461798836012</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>584.5295404712655</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>436.6164468888724</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>289.726499390962</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5200,49 +5200,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038357</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797758</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.506641481895</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.517090583878</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>916.294644713841</v>
       </c>
     </row>
     <row r="14">
@@ -5267,37 +5267,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356196</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5437,7 +5437,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797745</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2018.514925172274</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1392.965472922287</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="17">
@@ -5507,25 +5507,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3809.631423131744</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>3809.631423131744</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>4033.948342528643</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>576.8388927589092</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C19" t="n">
-        <v>407.9027098310023</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1207.269487630696</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X19" t="n">
-        <v>979.2799367326791</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y19" t="n">
-        <v>758.4873575891489</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="20">
@@ -5747,7 +5747,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
@@ -5838,19 +5838,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835333</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711975</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888044</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.724593490894</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5911,7 +5911,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797742</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2410.372231621976</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2410.372231621976</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2190.770766644916</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,31 +6008,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>549.614540988804</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>549.614540988804</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>549.614540988804</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>549.614540988804</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2334.285089135946</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2334.285089135946</v>
+        <v>2013.222020759241</v>
       </c>
       <c r="U25" t="n">
-        <v>2045.209862480144</v>
+        <v>1724.146794103439</v>
       </c>
       <c r="V25" t="n">
-        <v>1790.525374274257</v>
+        <v>1469.462305897552</v>
       </c>
       <c r="W25" t="n">
-        <v>1501.108204237296</v>
+        <v>1180.045135860591</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>952.0555849625739</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>731.2630058190438</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>663.4384611046087</v>
+        <v>825.2790621056427</v>
       </c>
       <c r="C28" t="n">
-        <v>503.3845676382795</v>
+        <v>665.2251686393131</v>
       </c>
       <c r="D28" t="n">
-        <v>384.9600145677387</v>
+        <v>523.9908186885548</v>
       </c>
       <c r="E28" t="n">
-        <v>384.9600145677387</v>
+        <v>384.9600145677391</v>
       </c>
       <c r="F28" t="n">
-        <v>384.9600145677387</v>
+        <v>384.9600145677391</v>
       </c>
       <c r="G28" t="n">
-        <v>226.6462047441961</v>
+        <v>226.6462047441964</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>182.758213379588</v>
+        <v>182.7582133795877</v>
       </c>
       <c r="K28" t="n">
-        <v>453.1530078064189</v>
+        <v>453.1530078064182</v>
       </c>
       <c r="L28" t="n">
-        <v>852.2571338836512</v>
+        <v>852.2571338836503</v>
       </c>
       <c r="M28" t="n">
-        <v>1282.972368515978</v>
+        <v>1282.972368515977</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.087772077279</v>
+        <v>1709.087772077277</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.322584687556</v>
+        <v>2087.322584687554</v>
       </c>
       <c r="P28" t="n">
-        <v>2388.703572162407</v>
+        <v>2388.703572162405</v>
       </c>
       <c r="Q28" t="n">
-        <v>2516.607338790599</v>
+        <v>2516.607338790596</v>
       </c>
       <c r="R28" t="n">
-        <v>2458.443924504579</v>
+        <v>2458.443924504576</v>
       </c>
       <c r="S28" t="n">
-        <v>2284.471379621061</v>
+        <v>2284.471379621058</v>
       </c>
       <c r="T28" t="n">
-        <v>2073.752204105579</v>
+        <v>2235.592805106615</v>
       </c>
       <c r="U28" t="n">
-        <v>1793.559266911355</v>
+        <v>1955.39986791239</v>
       </c>
       <c r="V28" t="n">
-        <v>1547.757068167046</v>
+        <v>1709.597669168081</v>
       </c>
       <c r="W28" t="n">
-        <v>1267.222187591663</v>
+        <v>1429.062788592698</v>
       </c>
       <c r="X28" t="n">
-        <v>1048.114926155223</v>
+        <v>1209.955527156258</v>
       </c>
       <c r="Y28" t="n">
-        <v>836.2046364732707</v>
+        <v>998.0452374743049</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6549,13 +6549,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
         <v>411.2214559580114</v>
@@ -6619,13 +6619,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954152</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6646,7 +6646,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6701,7 +6701,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6877,7 +6877,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931273</v>
@@ -6886,7 +6886,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
@@ -6977,7 +6977,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,22 +7017,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380734</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
         <v>2496.057455973196</v>
@@ -7117,16 +7117,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380733</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311328</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -22550,13 +22550,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>302.818500594983</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22604,10 +22604,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>283.314897828801</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22641,7 +22641,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>9.988809779315487e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22686,7 +22686,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -22708,22 +22708,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>110.5195184069645</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>38.07056488597473</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,13 +22750,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>111.8681131589322</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>138.8202214113346</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>109.4223302771045</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>179.8192178272018</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>62.35543909864978</v>
+        <v>83.05123379926113</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>30.15030327141954</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>186.0089474405556</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>135.8503182118945</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>35.40333084624618</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>22.58169891141507</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>137.6404960796073</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>136.6275814559693</v>
+        <v>136.6275814559696</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160362</v>
+        <v>72.47236975160394</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>160.2221949910282</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1367219.153606068</v>
+        <v>1367219.153606069</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1367219.153606068</v>
+        <v>1367219.153606069</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1367219.153606069</v>
+        <v>1367219.153606068</v>
       </c>
     </row>
     <row r="10">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49356.14660531239</v>
+        <v>49356.14660531241</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982123</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="D2" t="n">
         <v>61578.13273982124</v>
@@ -26323,19 +26323,19 @@
         <v>60535.99497675045</v>
       </c>
       <c r="F2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675043</v>
       </c>
       <c r="G2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675045</v>
       </c>
       <c r="H2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675043</v>
       </c>
       <c r="I2" t="n">
-        <v>60535.99497675046</v>
+        <v>60535.99497675043</v>
       </c>
       <c r="J2" t="n">
-        <v>60913.35287666378</v>
+        <v>60913.3528766638</v>
       </c>
       <c r="K2" t="n">
         <v>61578.13273982125</v>
@@ -26350,10 +26350,10 @@
         <v>61578.13273982125</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>224565.9756508469</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.94474006223</v>
+        <v>12392.94474006247</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551183</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.773253569531</v>
+        <v>7034.773253569287</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.94474006225</v>
+        <v>12392.9447400625</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="J4" t="n">
-        <v>18940.07269946538</v>
+        <v>18940.07269946527</v>
       </c>
       <c r="K4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498545</v>
       </c>
       <c r="L4" t="n">
         <v>24037.44323498544</v>
       </c>
       <c r="M4" t="n">
-        <v>24037.44323498548</v>
+        <v>24037.44323498545</v>
       </c>
       <c r="N4" t="n">
-        <v>24037.44323498545</v>
+        <v>24037.44323498543</v>
       </c>
       <c r="O4" t="n">
+        <v>24037.44323498543</v>
+      </c>
+      <c r="P4" t="n">
         <v>24037.44323498544</v>
-      </c>
-      <c r="P4" t="n">
-        <v>24037.44323498545</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1387907.186672679</v>
+        <v>-1388314.586210496</v>
       </c>
       <c r="C6" t="n">
         <v>-139952.5519256246</v>
@@ -26528,40 +26528,40 @@
         <v>-139952.5519256246</v>
       </c>
       <c r="E6" t="n">
-        <v>-382045.5806264039</v>
+        <v>-382080.3185518394</v>
       </c>
       <c r="F6" t="n">
-        <v>-56633.11881904864</v>
+        <v>-56667.85674448435</v>
       </c>
       <c r="G6" t="n">
-        <v>-56633.11881904864</v>
+        <v>-56667.85674448434</v>
       </c>
       <c r="H6" t="n">
-        <v>-56633.11881904866</v>
+        <v>-56667.85674448436</v>
       </c>
       <c r="I6" t="n">
-        <v>-56633.11881904863</v>
+        <v>-56667.8567444844</v>
       </c>
       <c r="J6" t="n">
-        <v>-284454.4832383735</v>
+        <v>-284476.6425671453</v>
       </c>
       <c r="K6" t="n">
-        <v>-78016.37108914182</v>
+        <v>-78016.37108914208</v>
       </c>
       <c r="L6" t="n">
         <v>-65623.42634907959</v>
       </c>
       <c r="M6" t="n">
-        <v>-150678.4542845915</v>
+        <v>-150678.4542845914</v>
       </c>
       <c r="N6" t="n">
-        <v>-65623.42634907961</v>
+        <v>-65623.42634907959</v>
       </c>
       <c r="O6" t="n">
-        <v>-72658.19960264914</v>
+        <v>-72658.19960264888</v>
       </c>
       <c r="P6" t="n">
-        <v>-78016.37108914185</v>
+        <v>-78016.37108914209</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961914</v>
+        <v>8.793466566961605</v>
       </c>
       <c r="K2" t="n">
         <v>24.2846474920397</v>
@@ -26716,16 +26716,16 @@
         <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961914</v>
+        <v>8.793466566961605</v>
       </c>
       <c r="K2" t="n">
-        <v>15.49118092507779</v>
+        <v>15.49118092507809</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.618527782440651e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961914</v>
+        <v>8.793466566961609</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507782</v>
+        <v>15.49118092507812</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961914</v>
+        <v>8.793466566961605</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507779</v>
+        <v>15.49118092507809</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>177.1239008292216</v>
       </c>
       <c r="V5" t="n">
-        <v>108.8774149194517</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>67.15462957552707</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27789,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27825,7 +27825,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>84.29125076737358</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27834,10 +27834,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>161.1506192533917</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>19.51914657901671</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>147.038211757034</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>119.338840496716</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28059,7 +28059,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,16 +28068,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28798,13 +28798,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566961914</v>
+        <v>8.793466566961605</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566961914</v>
+        <v>8.793466566961605</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566961914</v>
+        <v>8.793466566961605</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566961914</v>
+        <v>8.793466566961605</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566961914</v>
+        <v>8.793466566961605</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566961914</v>
+        <v>8.793466566961605</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566961914</v>
+        <v>8.793466566961605</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566961914</v>
+        <v>8.793466566961605</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566961914</v>
+        <v>8.793466566961605</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566961914</v>
+        <v>8.793466566961605</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566961914</v>
+        <v>8.793466566961605</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566961914</v>
+        <v>8.793466566961605</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566961914</v>
+        <v>8.793466566961605</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566961914</v>
+        <v>8.793466566961605</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566961914</v>
+        <v>8.793466566961605</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566961914</v>
+        <v>8.793466566961605</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566961914</v>
+        <v>8.793466566961605</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566961914</v>
+        <v>8.793466566961605</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566961914</v>
+        <v>8.793466566961605</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566961914</v>
+        <v>8.793466566961605</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566961914</v>
+        <v>8.793466566961605</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566961914</v>
+        <v>8.793466566961605</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566961914</v>
+        <v>8.793466566961605</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566961914</v>
+        <v>8.793466566961605</v>
       </c>
     </row>
     <row r="29">
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,22 +32084,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O18" t="n">
-        <v>369.1789913099992</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>301.6445156724565</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,10 +32795,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>454.1257695262137</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32959,7 +32959,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
         <v>790.8204499236507</v>
@@ -33023,7 +33023,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33038,16 +33038,16 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>382.1329742631541</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33190,7 +33190,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159425</v>
@@ -33269,16 +33269,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>639.4703354763103</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33436,7 +33436,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,25 +33737,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>312.3207226334981</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34445,31 +34445,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096363</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,22 +35732,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O18" t="n">
-        <v>226.5827468655548</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>159.048271228012</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,10 +36443,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>311.9917356041954</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36671,7 +36671,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36686,16 +36686,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>248.1585668488238</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.83994982991527</v>
+        <v>89.83994982991496</v>
       </c>
       <c r="K28" t="n">
-        <v>273.1260549765968</v>
+        <v>273.1260549765965</v>
       </c>
       <c r="L28" t="n">
-        <v>403.1354808860933</v>
+        <v>403.135480886093</v>
       </c>
       <c r="M28" t="n">
-        <v>435.065893568007</v>
+        <v>435.0658935680067</v>
       </c>
       <c r="N28" t="n">
-        <v>430.4195995568693</v>
+        <v>430.4195995568691</v>
       </c>
       <c r="O28" t="n">
-        <v>382.0553662730073</v>
+        <v>382.0553662730071</v>
       </c>
       <c r="P28" t="n">
-        <v>304.4252398735869</v>
+        <v>304.4252398735866</v>
       </c>
       <c r="Q28" t="n">
-        <v>129.1957238668603</v>
+        <v>129.19572386686</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36917,16 +36917,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>508.128623392977</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>174.4792836591391</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38093,31 +38093,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
